--- a/biology/Médecine/La_Revue_du_praticien/La_Revue_du_praticien.xlsx
+++ b/biology/Médecine/La_Revue_du_praticien/La_Revue_du_praticien.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-La Revue du praticien est une revue médicale française de référence, fondée en 1951 par la fusion de la Revue générale de clinique et de thérapeutique  (1887) et du Paris médical (1910)[1].
-Elle est destinée aux médecins pour leur formation post-universitaire et aux étudiants en médecine. Elle dispose d'une édition en ligne depuis 2005[1]. 
+La Revue du praticien est une revue médicale française de référence, fondée en 1951 par la fusion de la Revue générale de clinique et de thérapeutique  (1887) et du Paris médical (1910).
+Elle est destinée aux médecins pour leur formation post-universitaire et aux étudiants en médecine. Elle dispose d'une édition en ligne depuis 2005. 
 Publiée mensuellement en français, elle édite 10 numéros par an. Elle publie des articles rédigés par des experts souvent universitaires sur la totalité du champ médical. 
 </t>
         </is>
@@ -514,7 +526,9 @@
           <t>Note et référence</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 ↑ a et b La Revue du praticien, Baillière, 1951 (lire en ligne)
